--- a/lib/text_errors.xlsx
+++ b/lib/text_errors.xlsx
@@ -8849,8 +8849,8 @@
   </sheetPr>
   <dimension ref="A1:C3750"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A478" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A502" activeCellId="0" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
